--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySpace\DailyCode\Java\poidemo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAD2B24-F2DF-47A7-8705-84F5977EEBE3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD3E04B-D536-47D5-8B50-8977EE6AB21D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="7068" xr2:uid="{BAA7A24D-D08E-4DAA-A977-7C5D7CD148A7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>成绩公示</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -139,10 +139,6 @@
   <si>
     <t>排名（科学计数）</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.08.08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>奖励（金钱）</t>
@@ -157,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="12">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
@@ -166,6 +162,10 @@
     <numFmt numFmtId="180" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
     <numFmt numFmtId="181" formatCode="#,##0.00\ [$€-1]_);[Red]\(#,##0.00\ [$€-1]\)"/>
     <numFmt numFmtId="182" formatCode="[$RUB]\ #,##0.00_);[Red]\([$RUB]\ #,##0.00\)"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="185" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="186" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -228,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +254,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,22 +289,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,32 +609,32 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -659,10 +671,10 @@
         <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -675,8 +687,8 @@
       <c r="C3">
         <v>90</v>
       </c>
-      <c r="D3">
-        <v>70</v>
+      <c r="D3" s="20">
+        <v>70.665999999999997</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -686,11 +698,11 @@
       </c>
       <c r="G3">
         <f>SUM(C3:F3)</f>
-        <v>243</v>
+        <v>243.666</v>
       </c>
       <c r="H3">
         <f>AVERAGE(C3:F3)</f>
-        <v>60.75</v>
+        <v>60.916499999999999</v>
       </c>
       <c r="I3" s="3">
         <v>43320</v>
@@ -704,7 +716,7 @@
       <c r="L3" s="8">
         <v>5.0199999999999996</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <v>0.1</v>
       </c>
     </row>
@@ -716,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>90.021000000000001</v>
       </c>
       <c r="E4">
         <v>89</v>
@@ -726,11 +738,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G8" si="0">SUM(C4:F4)</f>
-        <v>184</v>
+        <v>184.02100000000002</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H8" si="1">AVERAGE(C4:F4)</f>
-        <v>61.333333333333336</v>
+        <v>61.340333333333341</v>
       </c>
       <c r="I4" s="5">
         <v>43320</v>
@@ -738,10 +750,10 @@
       <c r="J4" s="4">
         <v>0.71460648148148154</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <v>10</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="9">
         <v>0.2</v>
       </c>
     </row>
@@ -756,26 +768,26 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>28</v>
+        <v>6.75</v>
+      </c>
+      <c r="I5" s="15">
+        <v>43320</v>
       </c>
       <c r="J5" s="4">
         <v>0.75627314814814794</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <v>20</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <v>30</v>
       </c>
     </row>
@@ -796,14 +808,16 @@
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="16">
+        <v>43321</v>
+      </c>
       <c r="J6" s="4">
         <v>0.79793981481481502</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="12">
         <v>40</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -831,15 +845,17 @@
         <f t="shared" si="1"/>
         <v>53.333333333333336</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="17">
+        <v>43322</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="7">
         <v>1238</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <v>40</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="9">
         <v>-0.1</v>
       </c>
     </row>
@@ -873,10 +889,10 @@
       <c r="K8" s="7">
         <v>1239</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14">
         <v>40</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -945,15 +961,15 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySpace\DailyCode\Java\poidemo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD3E04B-D536-47D5-8B50-8977EE6AB21D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A2BA99-DCD4-409A-8574-C2E323177835}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="7068" xr2:uid="{BAA7A24D-D08E-4DAA-A977-7C5D7CD148A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="7068" activeTab="1" xr2:uid="{BAA7A24D-D08E-4DAA-A977-7C5D7CD148A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="单元表2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -283,14 +283,14 @@
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0207466-FAB2-4AE5-BD23-69FA7FFB606B}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -621,20 +621,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -687,7 +687,7 @@
       <c r="C3">
         <v>90</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>70.665999999999997</v>
       </c>
       <c r="E3">
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9885DF67-47F2-433C-9377-987993F0E23E}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -961,15 +961,15 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
